--- a/mannual/Summary/2024_11_Evol.xlsx
+++ b/mannual/Summary/2024_11_Evol.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unimelbcloud-my.sharepoint.com/personal/yimin_zhang1_unimelb_edu_au/Documents/Documents/Local Files/Optimisation_w_gp/optimisation_w_gp/mannual/Summary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="108" documentId="11_F25DC773A252ABDACC1048C1019D7EBE5BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB7AD06A-3AAF-4E9D-95E9-8AB10A3EEAAA}"/>
+  <xr:revisionPtr revIDLastSave="145" documentId="11_F25DC773A252ABDACC1048C1019D7EBE5BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E26A8A81-584F-4DF6-8C41-5804601B3F46}"/>
   <bookViews>
-    <workbookView xWindow="20616" yWindow="0" windowWidth="20640" windowHeight="16680" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="732" yWindow="732" windowWidth="28260" windowHeight="15228" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Assumptions" sheetId="4" r:id="rId1"/>
@@ -629,13 +629,11 @@
     <sheetNames>
       <sheetName val="PEG"/>
       <sheetName val="Assumptions"/>
-      <sheetName val="Tech_AAPL"/>
-      <sheetName val="ESEV_ENPH"/>
-      <sheetName val="HP_PFE"/>
-      <sheetName val="HP_JNJ"/>
+      <sheetName val="ED"/>
+      <sheetName val="Sheet3"/>
+      <sheetName val="Check"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
         <row r="3">
           <cell r="B3">
@@ -653,10 +651,9 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1174,7 +1171,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E8EE587-AC01-4E9F-8BBF-E7A213CFC847}">
   <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="K1" sqref="K1:K20"/>
     </sheetView>
   </sheetViews>
@@ -1391,10 +1388,10 @@
       </c>
       <c r="J11" s="9">
         <f>B44*100</f>
-        <v>9.0650078601269328</v>
+        <v>8.3700078601269308</v>
       </c>
       <c r="K11" s="3">
-        <v>9.0650078601269328</v>
+        <v>8.3700078601269308</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
@@ -1412,11 +1409,10 @@
         <v>24</v>
       </c>
       <c r="J12" s="9">
-        <f>100+B45*100</f>
-        <v>117.40539097676199</v>
+        <v>110</v>
       </c>
       <c r="K12" s="3">
-        <v>117.40539097676199</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
@@ -1561,10 +1557,10 @@
       </c>
       <c r="J19" s="9">
         <f>B52</f>
-        <v>65.281169022482985</v>
+        <v>62.026500883804161</v>
       </c>
       <c r="K19" s="3">
-        <v>65.281169022482985</v>
+        <v>62.026500883804161</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
@@ -1590,10 +1586,10 @@
       </c>
       <c r="J20" s="9">
         <f>B53</f>
-        <v>75.891201008078426</v>
+        <v>72.107557460855858</v>
       </c>
       <c r="K20" s="3">
-        <v>75.891201008078426</v>
+        <v>72.107557460855858</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
@@ -1820,8 +1816,8 @@
         <v>66</v>
       </c>
       <c r="B43" s="20">
-        <f>AVERAGE(B28:B31)</f>
-        <v>0.15765000000000001</v>
+        <f>MEDIAN(B28:B31)</f>
+        <v>0.1368</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
@@ -1830,7 +1826,7 @@
       </c>
       <c r="B44" s="21">
         <f>SUM(B40:B43)/3</f>
-        <v>9.0650078601269321E-2</v>
+        <v>8.3700078601269309E-2</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
@@ -1889,7 +1885,7 @@
       </c>
       <c r="B52" s="22">
         <f>(B22*2-B$23)*(1+B$44)^8*B$48/(1+[1]Assumptions!B$4-B$14/B$2)^10</f>
-        <v>65.281169022482985</v>
+        <v>62.026500883804161</v>
       </c>
       <c r="C52" s="22"/>
     </row>
@@ -1899,7 +1895,7 @@
       </c>
       <c r="B53" s="22">
         <f>(B23*2-B$23)*(1+B$44)^8*B$48/(1+[1]Assumptions!B$4-B$14/B$2)^10</f>
-        <v>75.891201008078426</v>
+        <v>72.107557460855858</v>
       </c>
       <c r="C53" s="22"/>
     </row>
@@ -1909,7 +1905,7 @@
       </c>
       <c r="B54" s="22">
         <f>(B24*2-B$23)*(1+B$44)^8*B$48/(1+[1]Assumptions!B$4-B$14/B$2)^10</f>
-        <v>90.332633432916623</v>
+        <v>85.828995579620639</v>
       </c>
       <c r="C54" s="22"/>
     </row>
@@ -1922,8 +1918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -2136,10 +2132,10 @@
       </c>
       <c r="J11" s="9">
         <f>B44*100</f>
-        <v>8.6760465277067667</v>
+        <v>8.2593798610401006</v>
       </c>
       <c r="K11" s="3">
-        <v>9.0093798610401006</v>
+        <v>8.2593798610401006</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
@@ -2157,11 +2153,10 @@
         <v>24</v>
       </c>
       <c r="J12" s="9">
-        <f>100+B45*100</f>
-        <v>127.5548726953468</v>
+        <v>110</v>
       </c>
       <c r="K12" s="3">
-        <v>127.5548726953468</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
@@ -2202,10 +2197,10 @@
       </c>
       <c r="J14" s="3">
         <f>MAX(J12:J13)*2</f>
-        <v>255.1097453906936</v>
+        <v>220</v>
       </c>
       <c r="K14" s="3">
-        <v>255.1097453906936</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
@@ -2306,10 +2301,10 @@
       </c>
       <c r="J19" s="9">
         <f>B52</f>
-        <v>382.39906975349112</v>
+        <v>370.82624097862299</v>
       </c>
       <c r="K19" s="3">
-        <v>391.88363773006415</v>
+        <v>370.82624097862299</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
@@ -2335,10 +2330,10 @@
       </c>
       <c r="J20" s="9">
         <f>B53</f>
-        <v>431.20558790964827</v>
+        <v>418.15569100780272</v>
       </c>
       <c r="K20" s="3">
-        <v>441.90069423677306</v>
+        <v>418.15569100780272</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
@@ -2565,8 +2560,8 @@
         <v>66</v>
       </c>
       <c r="B43" s="20">
-        <f>AVERAGE(B28:B31)</f>
-        <v>0.11250000000000002</v>
+        <f>MEDIAN(B28:B31)</f>
+        <v>0.1</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
@@ -2575,7 +2570,7 @@
       </c>
       <c r="B44" s="21">
         <f>SUM(B40:B43)/3</f>
-        <v>8.6760465277067669E-2</v>
+        <v>8.2593798610401004E-2</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
@@ -2634,7 +2629,7 @@
       </c>
       <c r="B52" s="22">
         <f>(B22*2-B$23)*(1+B$44)^8*B$48/(1+[1]Assumptions!B$4-B$14/B$2)^10</f>
-        <v>382.39906975349112</v>
+        <v>370.82624097862299</v>
       </c>
       <c r="C52" s="22"/>
     </row>
@@ -2644,7 +2639,7 @@
       </c>
       <c r="B53" s="22">
         <f>(B23*2-B$23)*(1+B$44)^8*B$48/(1+[1]Assumptions!B$4-B$14/B$2)^10</f>
-        <v>431.20558790964827</v>
+        <v>418.15569100780272</v>
       </c>
       <c r="C53" s="22"/>
     </row>
@@ -2654,7 +2649,7 @@
       </c>
       <c r="B54" s="22">
         <f>(B24*2-B$23)*(1+B$44)^8*B$48/(1+[1]Assumptions!B$4-B$14/B$2)^10</f>
-        <v>544.92477521349429</v>
+        <v>528.43330957579121</v>
       </c>
       <c r="C54" s="22"/>
     </row>
@@ -2667,8 +2662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0AC99B5-E57C-49F9-9E2A-C8C88DE9D7E3}">
   <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A22" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -2884,10 +2879,10 @@
       </c>
       <c r="J11" s="9">
         <f>B44*100</f>
-        <v>5.8305173408758755</v>
+        <v>4.013850674209209</v>
       </c>
       <c r="K11" s="3">
-        <v>6.1638506742092094</v>
+        <v>4.013850674209209</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
@@ -2905,11 +2900,10 @@
         <v>24</v>
       </c>
       <c r="J12" s="9">
-        <f>100+B45*100</f>
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="K12" s="3">
-        <v>130</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
@@ -2950,10 +2944,10 @@
       </c>
       <c r="J14" s="3">
         <f>MAX(J12:J13)*2</f>
-        <v>260</v>
+        <v>220</v>
       </c>
       <c r="K14" s="3">
-        <v>260</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
@@ -3054,10 +3048,10 @@
       </c>
       <c r="J19" s="9">
         <f>B52</f>
-        <v>165.84599200661472</v>
+        <v>144.39329405673882</v>
       </c>
       <c r="K19" s="3">
-        <v>170.07125911834149</v>
+        <v>144.39329405673882</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
@@ -3083,10 +3077,10 @@
       </c>
       <c r="J20" s="9">
         <f>B53</f>
-        <v>206.18690898119672</v>
+        <v>179.51598720567529</v>
       </c>
       <c r="K20" s="3">
-        <v>211.43994376874886</v>
+        <v>179.51598720567529</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
@@ -3313,8 +3307,8 @@
         <v>66</v>
       </c>
       <c r="B43" s="20">
-        <f>AVERAGE(B28:B31)</f>
-        <v>4.0499999999999994E-2</v>
+        <f>MEDIAN(B28:B31)</f>
+        <v>-1.4E-2</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
@@ -3323,7 +3317,7 @@
       </c>
       <c r="B44" s="21">
         <f>SUM(B40:B43)/3</f>
-        <v>5.8305173408758758E-2</v>
+        <v>4.0138506742092094E-2</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
@@ -3381,7 +3375,7 @@
       </c>
       <c r="B52" s="22">
         <f>(B22*2-B$23)*(1+B$44)^8*B$48/(1+[1]Assumptions!B$4-B$14/B$2)^10</f>
-        <v>165.84599200661472</v>
+        <v>144.39329405673882</v>
       </c>
       <c r="C52" s="22"/>
     </row>
@@ -3391,7 +3385,7 @@
       </c>
       <c r="B53" s="22">
         <f>(B23*2-B$23)*(1+B$44)^8*B$48/(1+[1]Assumptions!B$4-B$14/B$2)^10</f>
-        <v>206.18690898119672</v>
+        <v>179.51598720567529</v>
       </c>
       <c r="C53" s="22"/>
     </row>
@@ -3401,7 +3395,7 @@
       </c>
       <c r="B54" s="22">
         <f>(B24*2-B$23)*(1+B$44)^8*B$48/(1+[1]Assumptions!B$4-B$14/B$2)^10</f>
-        <v>260.6919701379652</v>
+        <v>226.97064817134944</v>
       </c>
       <c r="C54" s="22"/>
     </row>
@@ -3414,8 +3408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B81168FB-942F-48BA-8F4E-2D56C5B4B832}">
   <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -3458,7 +3452,7 @@
         <v>5000</v>
       </c>
       <c r="K2" s="3">
-        <v>4750</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
@@ -3629,10 +3623,10 @@
       </c>
       <c r="J11" s="9">
         <f>B44*100</f>
-        <v>14.19548395886124</v>
+        <v>13.69548395886124</v>
       </c>
       <c r="K11" s="3">
-        <v>14.547834351676173</v>
+        <v>13.69548395886124</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
@@ -3650,11 +3644,10 @@
         <v>24</v>
       </c>
       <c r="J12" s="9">
-        <f>100+B45*100</f>
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="K12" s="3">
-        <v>130</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
@@ -3695,10 +3688,10 @@
       </c>
       <c r="J14" s="3">
         <f>MAX(J12:J13)*2</f>
-        <v>260</v>
+        <v>220</v>
       </c>
       <c r="K14" s="3">
-        <v>260</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
@@ -3710,7 +3703,7 @@
         <v>0.70000000000000007</v>
       </c>
       <c r="K15" s="3">
-        <v>0.73684210526315785</v>
+        <v>0.70000000000000007</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
@@ -3773,7 +3766,7 @@
         <v>20.94906494985328</v>
       </c>
       <c r="K18" s="3">
-        <v>20.401611702360615</v>
+        <v>20.94906494985328</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
@@ -3799,10 +3792,10 @@
       </c>
       <c r="J19" s="9">
         <f>B52</f>
-        <v>3644.7342642870735</v>
+        <v>3519.0071692864644</v>
       </c>
       <c r="K19" s="3">
-        <v>3650.3412700600111</v>
+        <v>3519.0071692864644</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
@@ -3828,10 +3821,10 @@
       </c>
       <c r="J20" s="9">
         <f>B53</f>
-        <v>5127.1270376708599</v>
+        <v>4950.2639959776061</v>
       </c>
       <c r="K20" s="3">
-        <v>5135.0145347596026</v>
+        <v>4950.2639959776061</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
@@ -4057,8 +4050,8 @@
         <v>66</v>
       </c>
       <c r="B43" s="20">
-        <f>AVERAGE(B28:B31)</f>
-        <v>0.17</v>
+        <f>MEDIAN(B28:B31)</f>
+        <v>0.155</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
@@ -4067,7 +4060,7 @@
       </c>
       <c r="B44" s="21">
         <f>SUM(B40:B43)/3</f>
-        <v>0.14195483958861241</v>
+        <v>0.1369548395886124</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
@@ -4125,7 +4118,7 @@
       </c>
       <c r="B52" s="22">
         <f>(B22*2-B$23)*(1+B$44)^8*B$48/(1+[1]Assumptions!B$4-B$14/B$2)^10</f>
-        <v>3644.7342642870735</v>
+        <v>3519.0071692864644</v>
       </c>
       <c r="C52" s="22"/>
     </row>
@@ -4135,7 +4128,7 @@
       </c>
       <c r="B53" s="22">
         <f>(B23*2-B$23)*(1+B$44)^8*B$48/(1+[1]Assumptions!B$4-B$14/B$2)^10</f>
-        <v>5127.1270376708599</v>
+        <v>4950.2639959776061</v>
       </c>
       <c r="C53" s="22"/>
     </row>
@@ -4145,7 +4138,7 @@
       </c>
       <c r="B54" s="22">
         <f>(B24*2-B$23)*(1+B$44)^8*B$48/(1+[1]Assumptions!B$4-B$14/B$2)^10</f>
-        <v>5694.7883617076477</v>
+        <v>5498.3435332392455</v>
       </c>
       <c r="C54" s="22"/>
     </row>
@@ -4158,8 +4151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7530699D-D3B8-4971-8955-4817A00B1C4D}">
   <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -4373,10 +4366,10 @@
       </c>
       <c r="J11" s="9">
         <f>B44*100</f>
-        <v>13.683295246499085</v>
+        <v>13.09996191316575</v>
       </c>
       <c r="K11" s="3">
-        <v>14.016628579832416</v>
+        <v>13.09996191316575</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
@@ -4394,11 +4387,10 @@
         <v>24</v>
       </c>
       <c r="J12" s="9">
-        <f>100+B45*100</f>
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="K12" s="3">
-        <v>130</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
@@ -4439,10 +4431,10 @@
       </c>
       <c r="J14" s="3">
         <f>MAX(J12:J13)*2</f>
-        <v>260</v>
+        <v>220</v>
       </c>
       <c r="K14" s="3">
-        <v>260</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
@@ -4543,10 +4535,10 @@
       </c>
       <c r="J19" s="9">
         <f>B52</f>
-        <v>258.97928741474431</v>
+        <v>248.53724033755623</v>
       </c>
       <c r="K19" s="3">
-        <v>265.11686898779658</v>
+        <v>248.53724033755623</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
@@ -4572,10 +4564,10 @@
       </c>
       <c r="J20" s="9">
         <f>B53</f>
-        <v>276.99523784359604</v>
+        <v>265.82678749147317</v>
       </c>
       <c r="K20" s="3">
-        <v>283.55978161303454</v>
+        <v>265.82678749147317</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
@@ -4802,8 +4794,8 @@
         <v>66</v>
       </c>
       <c r="B43" s="20">
-        <f>AVERAGE(B28:B31)</f>
-        <v>0.16250000000000001</v>
+        <f>MEDIAN(B28:B31)</f>
+        <v>0.14500000000000002</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
@@ -4812,7 +4804,7 @@
       </c>
       <c r="B44" s="21">
         <f>SUM(B40:B43)/3</f>
-        <v>0.13683295246499086</v>
+        <v>0.1309996191316575</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
@@ -4870,7 +4862,7 @@
       </c>
       <c r="B52" s="22">
         <f>(B22*2-B$23)*(1+B$44)^8*B$48/(1+[1]Assumptions!B$4-B$14/B$2)^10</f>
-        <v>258.97928741474431</v>
+        <v>248.53724033755623</v>
       </c>
       <c r="C52" s="22"/>
     </row>
@@ -4880,7 +4872,7 @@
       </c>
       <c r="B53" s="22">
         <f>(B23*2-B$23)*(1+B$44)^8*B$48/(1+[1]Assumptions!B$4-B$14/B$2)^10</f>
-        <v>276.99523784359604</v>
+        <v>265.82678749147317</v>
       </c>
       <c r="C53" s="22"/>
     </row>
@@ -4890,7 +4882,7 @@
       </c>
       <c r="B54" s="22">
         <f>(B24*2-B$23)*(1+B$44)^8*B$48/(1+[1]Assumptions!B$4-B$14/B$2)^10</f>
-        <v>295.01118827244778</v>
+        <v>283.11633464539005</v>
       </c>
       <c r="C54" s="22"/>
     </row>
@@ -4903,8 +4895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DAB1FD8-2E2F-4916-820F-3F0BA564E46F}">
   <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -5118,10 +5110,10 @@
       </c>
       <c r="J11" s="9">
         <f>B44*100</f>
-        <v>14.094369981829228</v>
+        <v>14.011036648495898</v>
       </c>
       <c r="K11" s="3">
-        <v>14.427703315162562</v>
+        <v>14.011036648495898</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
@@ -5139,11 +5131,10 @@
         <v>24</v>
       </c>
       <c r="J12" s="9">
-        <f>100+B45*100</f>
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="K12" s="3">
-        <v>130</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
@@ -5184,10 +5175,10 @@
       </c>
       <c r="J14" s="3">
         <f>MAX(J12:J13)*2</f>
-        <v>260</v>
+        <v>220</v>
       </c>
       <c r="K14" s="3">
-        <v>260</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
@@ -5288,10 +5279,10 @@
       </c>
       <c r="J19" s="9">
         <f>B52</f>
-        <v>421.24185637665283</v>
+        <v>418.78677420331388</v>
       </c>
       <c r="K19" s="3">
-        <v>431.18858161548388</v>
+        <v>418.78677420331388</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
@@ -5317,10 +5308,10 @@
       </c>
       <c r="J20" s="9">
         <f>B53</f>
-        <v>459.93861483645043</v>
+        <v>457.25800017999632</v>
       </c>
       <c r="K20" s="3">
-        <v>470.79908123895365</v>
+        <v>457.25800017999632</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
@@ -5547,8 +5538,8 @@
         <v>66</v>
       </c>
       <c r="B43" s="20">
-        <f>AVERAGE(B28:B31)</f>
-        <v>0.16250000000000001</v>
+        <f>MEDIAN(B28:B31)</f>
+        <v>0.16</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
@@ -5557,7 +5548,7 @@
       </c>
       <c r="B44" s="21">
         <f>SUM(B40:B43)/3</f>
-        <v>0.14094369981829227</v>
+        <v>0.14011036648495898</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
@@ -5615,7 +5606,7 @@
       </c>
       <c r="B52" s="22">
         <f>(B22*2-B$23)*(1+B$44)^8*B$48/(1+[1]Assumptions!B$4-B$14/B$2)^10</f>
-        <v>421.24185637665283</v>
+        <v>418.78677420331388</v>
       </c>
       <c r="C52" s="22"/>
     </row>
@@ -5625,7 +5616,7 @@
       </c>
       <c r="B53" s="22">
         <f>(B23*2-B$23)*(1+B$44)^8*B$48/(1+[1]Assumptions!B$4-B$14/B$2)^10</f>
-        <v>459.93861483645043</v>
+        <v>457.25800017999632</v>
       </c>
       <c r="C53" s="22"/>
     </row>
@@ -5635,7 +5626,7 @@
       </c>
       <c r="B54" s="22">
         <f>(B24*2-B$23)*(1+B$44)^8*B$48/(1+[1]Assumptions!B$4-B$14/B$2)^10</f>
-        <v>493.66007577998818</v>
+        <v>490.78292567396232</v>
       </c>
       <c r="C54" s="22"/>
     </row>
@@ -5648,8 +5639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66C33C27-26E8-45C7-9D23-079C46D7C8D8}">
   <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -5692,7 +5683,7 @@
         <v>300</v>
       </c>
       <c r="K2" s="3">
-        <v>263</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
@@ -5863,10 +5854,10 @@
       </c>
       <c r="J11" s="9">
         <f>B44*100</f>
-        <v>10.913389446296415</v>
+        <v>11.913389446296414</v>
       </c>
       <c r="K11" s="3">
-        <v>11.071270864202036</v>
+        <v>11.913389446296414</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
@@ -5884,11 +5875,10 @@
         <v>24</v>
       </c>
       <c r="J12" s="9">
-        <f>100+B45*100</f>
-        <v>126.97352875435067</v>
+        <v>110</v>
       </c>
       <c r="K12" s="3">
-        <v>126.97352875435067</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
@@ -5959,7 +5949,7 @@
         <v>6</v>
       </c>
       <c r="K16" s="3">
-        <v>8.5113063536227571</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
@@ -6007,7 +5997,7 @@
         <v>41.864279498198023</v>
       </c>
       <c r="K18" s="3">
-        <v>46.757299331978153</v>
+        <v>41.864279498198023</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
@@ -6033,10 +6023,10 @@
       </c>
       <c r="J19" s="9">
         <f>B52</f>
-        <v>33.268337393040653</v>
+        <v>35.745030509855724</v>
       </c>
       <c r="K19" s="3">
-        <v>37.581923558924714</v>
+        <v>35.745030509855724</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
@@ -6062,10 +6052,10 @@
       </c>
       <c r="J20" s="9">
         <f>B53</f>
-        <v>118.2874218419224</v>
+        <v>127.09344181282047</v>
       </c>
       <c r="K20" s="3">
-        <v>133.62461709839906</v>
+        <v>127.09344181282047</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
@@ -6292,8 +6282,8 @@
         <v>66</v>
       </c>
       <c r="B43" s="20">
-        <f>AVERAGE(B28:B31)</f>
-        <v>0.15500000000000003</v>
+        <f>MEDIAN(B28:B31)</f>
+        <v>0.185</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
@@ -6302,7 +6292,7 @@
       </c>
       <c r="B44" s="21">
         <f>SUM(B40:B43)/3</f>
-        <v>0.10913389446296416</v>
+        <v>0.11913389446296414</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
@@ -6361,7 +6351,7 @@
       </c>
       <c r="B52" s="22">
         <f>(B22*2-B$23)*(1+B$44)^8*B$48/(1+[1]Assumptions!B$4-B$14/B$2)^10</f>
-        <v>33.268337393040653</v>
+        <v>35.745030509855724</v>
       </c>
       <c r="C52" s="22"/>
     </row>
@@ -6371,7 +6361,7 @@
       </c>
       <c r="B53" s="22">
         <f>(B23*2-B$23)*(1+B$44)^8*B$48/(1+[1]Assumptions!B$4-B$14/B$2)^10</f>
-        <v>118.2874218419224</v>
+        <v>127.09344181282047</v>
       </c>
       <c r="C53" s="22"/>
     </row>
@@ -6381,7 +6371,7 @@
       </c>
       <c r="B54" s="22">
         <f>(B24*2-B$23)*(1+B$44)^8*B$48/(1+[1]Assumptions!B$4-B$14/B$2)^10</f>
-        <v>189.99917133358784</v>
+        <v>204.14384091184283</v>
       </c>
       <c r="C54" s="22"/>
     </row>
@@ -6394,8 +6384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73BB623B-6B2B-469A-B904-F6123B59CAA3}">
   <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -6608,10 +6598,10 @@
       </c>
       <c r="J11" s="9">
         <f>B44*100</f>
-        <v>10.190194969871243</v>
+        <v>9.898528303204575</v>
       </c>
       <c r="K11" s="3">
-        <v>10.558020139033426</v>
+        <v>9.898528303204575</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
@@ -6629,11 +6619,10 @@
         <v>24</v>
       </c>
       <c r="J12" s="9">
-        <f>100+B45*100</f>
-        <v>129.03057946807144</v>
+        <v>110</v>
       </c>
       <c r="K12" s="3">
-        <v>129.03057946807144</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
@@ -6704,7 +6693,7 @@
         <v>6</v>
       </c>
       <c r="K16" s="3">
-        <v>8.5113063536227571</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
@@ -6751,7 +6740,7 @@
         <v>14.595507653385496</v>
       </c>
       <c r="K18" s="3">
-        <v>16.5696091493956</v>
+        <v>14.595507653385496</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
@@ -6779,10 +6768,10 @@
       </c>
       <c r="J19" s="9">
         <f>B52</f>
-        <v>58.338377241078234</v>
+        <v>57.114416677975477</v>
       </c>
       <c r="K19" s="3">
-        <v>68.018306390960589</v>
+        <v>57.114416677975477</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
@@ -6808,10 +6797,10 @@
       </c>
       <c r="J20" s="9">
         <f>B53</f>
-        <v>74.971541402056545</v>
+        <v>73.398610950941233</v>
       </c>
       <c r="K20" s="3">
-        <v>87.411366494043705</v>
+        <v>73.398610950941233</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
@@ -7041,8 +7030,8 @@
         <v>66</v>
       </c>
       <c r="B43" s="20">
-        <f>AVERAGE(B28:B31)</f>
-        <v>0.11875000000000002</v>
+        <f>MEDIAN(B28:B31)</f>
+        <v>0.11000000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
@@ -7051,7 +7040,7 @@
       </c>
       <c r="B44" s="21">
         <f>SUM(B40:B43)/3</f>
-        <v>0.10190194969871243</v>
+        <v>9.8985283032045748E-2</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
@@ -7110,7 +7099,7 @@
       </c>
       <c r="B51" s="22">
         <f>(B22*2-B$23)*(1+B$44)^8*B$48/(1+[1]Assumptions!B$4-B$14/B$2)^10</f>
-        <v>27.27349711689822</v>
+        <v>26.701289138760021</v>
       </c>
       <c r="C51" s="22"/>
     </row>
@@ -7120,7 +7109,7 @@
       </c>
       <c r="B52" s="22">
         <f>(B23*2-B$23)*(1+B$44)^8*B$48/(1+[1]Assumptions!B$4-B$14/B$2)^10</f>
-        <v>58.338377241078234</v>
+        <v>57.114416677975477</v>
       </c>
       <c r="C52" s="22"/>
     </row>
@@ -7130,7 +7119,7 @@
       </c>
       <c r="B53" s="22">
         <f>(B24*2-B$23)*(1+B$44)^8*B$48/(1+[1]Assumptions!B$4-B$14/B$2)^10</f>
-        <v>74.971541402056545</v>
+        <v>73.398610950941233</v>
       </c>
       <c r="C53" s="22"/>
     </row>
@@ -7146,8 +7135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BDCC61A-436E-4907-98D9-22FE6D8FF696}">
   <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -7295,7 +7284,7 @@
       </c>
       <c r="J8" s="3">
         <f t="shared" si="0"/>
-        <v>2.5</v>
+        <v>2.84</v>
       </c>
       <c r="K8" s="3">
         <v>2.5</v>
@@ -7361,10 +7350,10 @@
       </c>
       <c r="J11" s="9">
         <f>B44*100</f>
-        <v>15.082859109769196</v>
+        <v>15.666192443102526</v>
       </c>
       <c r="K11" s="3">
-        <v>11.187599185443338</v>
+        <v>15.666192443102526</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
@@ -7382,11 +7371,10 @@
         <v>24</v>
       </c>
       <c r="J12" s="9">
-        <f>100+B45*100</f>
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="K12" s="3">
-        <v>130</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
@@ -7457,7 +7445,7 @@
         <v>6</v>
       </c>
       <c r="K16" s="3">
-        <v>2.5936328924845542</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
@@ -7505,7 +7493,7 @@
         <v>16.424792139077852</v>
       </c>
       <c r="K18" s="3">
-        <v>13.869657964157442</v>
+        <v>16.424792139077852</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
@@ -7531,10 +7519,10 @@
       </c>
       <c r="J19" s="9">
         <f>B52</f>
-        <v>24.159050363067106</v>
+        <v>38.951642468449393</v>
       </c>
       <c r="K19" s="3">
-        <v>15.488573018429982</v>
+        <v>25.156269094206898</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
@@ -7560,10 +7548,10 @@
       </c>
       <c r="J20" s="9">
         <f>B53</f>
-        <v>73.256475294461538</v>
+        <v>76.280299834046716</v>
       </c>
       <c r="K20" s="3">
-        <v>46.965350442981219</v>
+        <v>76.280299834046716</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
@@ -7590,7 +7578,7 @@
         <v>43</v>
       </c>
       <c r="B22" s="11">
-        <v>2.5</v>
+        <v>2.84</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>28</v>
@@ -7740,7 +7728,7 @@
       </c>
       <c r="B38" s="16">
         <f>(B23-B22)/B23</f>
-        <v>0.33510638297872336</v>
+        <v>0.24468085106382978</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>60</v>
@@ -7752,7 +7740,7 @@
       </c>
       <c r="B39" s="27">
         <f>(B36-[1]Assumptions!$B$3)/B36/B38/[1]Assumptions!B5</f>
-        <v>0.50121417433826132</v>
+        <v>0.68644549963718393</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>62</v>
@@ -7790,8 +7778,8 @@
         <v>66</v>
       </c>
       <c r="B43" s="20">
-        <f>MIN(AVERAGE(B28:B31),0.3)</f>
-        <v>0.13750000000000001</v>
+        <f>MEDIAN(B28:B31)</f>
+        <v>0.155</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
@@ -7800,7 +7788,7 @@
       </c>
       <c r="B44" s="21">
         <f>SUM(B40:B43)/3</f>
-        <v>0.15082859109769195</v>
+        <v>0.15666192443102525</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
@@ -7858,8 +7846,8 @@
         <v>39</v>
       </c>
       <c r="B52" s="22">
-        <f>(B22*2-B$23)*(1+B$44)^8*B$48/(1+[1]Assumptions!B$4-B$14/B$2)^10</f>
-        <v>24.159050363067106</v>
+        <f>(B22*2-B$23)*(1+B$44)^8*B$48/(1+Assumptions!B$4-B$14/B$2)^10</f>
+        <v>38.951642468449393</v>
       </c>
       <c r="C52" s="22"/>
     </row>
@@ -7869,7 +7857,7 @@
       </c>
       <c r="B53" s="22">
         <f>(B23*2-B$23)*(1+B$44)^8*B$48/(1+[1]Assumptions!B$4-B$14/B$2)^10</f>
-        <v>73.256475294461538</v>
+        <v>76.280299834046716</v>
       </c>
       <c r="C53" s="22"/>
     </row>
@@ -7879,7 +7867,7 @@
       </c>
       <c r="B54" s="22">
         <f>(B24*2-B$23)*(1+B$44)^8*B$48/(1+[1]Assumptions!B$4-B$14/B$2)^10</f>
-        <v>120.40558971270539</v>
+        <v>125.37559919532146</v>
       </c>
       <c r="C54" s="22"/>
     </row>
